--- a/office/LAB14.xlsx
+++ b/office/LAB14.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\jpr\django\pc-notebook\office\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9F265684-2089-48C1-9B2B-02A037CF66CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A99FBE18-E08F-4D37-83D9-A9053EBCD70A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="810" yWindow="-120" windowWidth="37710" windowHeight="21840" xr2:uid="{1C2D599A-335A-4771-9286-92EAA936680C}"/>
+    <workbookView xWindow="39210" yWindow="8235" windowWidth="28110" windowHeight="16440" xr2:uid="{1C2D599A-335A-4771-9286-92EAA936680C}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -376,20 +376,174 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09B8C630-FF39-4BD7-B48C-A320A48A720B}">
-  <dimension ref="A4:B4"/>
+  <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="25.85546875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F1">
+        <f ca="1">RANDBETWEEN(1, 1000)</f>
+        <v>746</v>
+      </c>
+      <c r="G1">
+        <f t="shared" ref="G1:J5" ca="1" si="0">RANDBETWEEN(1, 1000)</f>
+        <v>104</v>
+      </c>
+      <c r="H1">
+        <f t="shared" ca="1" si="0"/>
+        <v>946</v>
+      </c>
+      <c r="I1">
+        <f t="shared" ca="1" si="0"/>
+        <v>271</v>
+      </c>
+      <c r="J1">
+        <f t="shared" ca="1" si="0"/>
+        <v>912</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F2">
+        <f ca="1">RANDBETWEEN(1, 1000)</f>
+        <v>621</v>
+      </c>
+      <c r="G2">
+        <f t="shared" ca="1" si="0"/>
+        <v>260</v>
+      </c>
+      <c r="H2">
+        <f t="shared" ca="1" si="0"/>
+        <v>217</v>
+      </c>
+      <c r="I2">
+        <f t="shared" ca="1" si="0"/>
+        <v>203</v>
+      </c>
+      <c r="J2">
+        <f t="shared" ca="1" si="0"/>
+        <v>773</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D3">
+        <f>IF(OR(X+Y&gt;30, X-Y &lt; 15, Y-X &lt; 15), X*Y, X*X + Y*Y)</f>
+        <v>144</v>
+      </c>
+      <c r="F3">
+        <f t="shared" ref="F2:F5" ca="1" si="1">RANDBETWEEN(1, 1000)</f>
+        <v>60</v>
+      </c>
+      <c r="G3">
+        <f t="shared" ca="1" si="0"/>
+        <v>556</v>
+      </c>
+      <c r="H3">
+        <f t="shared" ca="1" si="0"/>
+        <v>625</v>
+      </c>
+      <c r="I3">
+        <f t="shared" ca="1" si="0"/>
+        <v>360</v>
+      </c>
+      <c r="J3">
+        <f t="shared" ca="1" si="0"/>
+        <v>843</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>8</v>
       </c>
       <c r="B4">
         <v>18</v>
+      </c>
+      <c r="F4">
+        <f t="shared" ca="1" si="1"/>
+        <v>350</v>
+      </c>
+      <c r="G4">
+        <f t="shared" ca="1" si="0"/>
+        <v>527</v>
+      </c>
+      <c r="H4">
+        <f t="shared" ca="1" si="0"/>
+        <v>533</v>
+      </c>
+      <c r="I4">
+        <f t="shared" ca="1" si="0"/>
+        <v>290</v>
+      </c>
+      <c r="J4">
+        <f t="shared" ca="1" si="0"/>
+        <v>495</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" t="str">
+        <f>IF(1 &lt;= X &lt;= 7, "Пренадлежит", "Не принадлежит")</f>
+        <v>Не принадлежит</v>
+      </c>
+      <c r="C5">
+        <f>IF(X &gt;= Y &gt; 0, X + Y, IF(OR(Y &lt; 0 &lt;= X, X &lt; 0 &lt;= Y), ABS(X - Y), IF(AND(X &lt; 0, Y &lt; 0), ABS(X) + ABS(Y))))</f>
+        <v>26</v>
+      </c>
+      <c r="F5">
+        <f t="shared" ca="1" si="1"/>
+        <v>330</v>
+      </c>
+      <c r="G5">
+        <f t="shared" ca="1" si="0"/>
+        <v>73</v>
+      </c>
+      <c r="H5">
+        <f t="shared" ca="1" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="I5">
+        <f t="shared" ca="1" si="0"/>
+        <v>204</v>
+      </c>
+      <c r="J5">
+        <f t="shared" ca="1" si="0"/>
+        <v>181</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <f>Y-X</f>
+        <v>10</v>
+      </c>
+      <c r="B7">
+        <f>IF(A7 &gt; 0, Y*Y, X*X)</f>
+        <v>324</v>
+      </c>
+      <c r="F7">
+        <f ca="1">AVERAGE(F1:J5)</f>
+        <v>420.04</v>
+      </c>
+      <c r="G7" t="str">
+        <f ca="1">"Наибольшее
+значение: "&amp;LARGE(F1:J5,1)</f>
+        <v>Наибольшее
+значение: 946</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F8">
+        <f ca="1">COUNTIF(F1:J5,"&lt;=20")</f>
+        <v>0</v>
+      </c>
+      <c r="G8" t="str">
+        <f ca="1">"Наименьшее значение: "&amp;SMALL(F1:J5,1)</f>
+        <v>Наименьшее значение: 21</v>
       </c>
     </row>
   </sheetData>

--- a/office/LAB14.xlsx
+++ b/office/LAB14.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr codeName="ЭтаКнига"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\jpr\django\pc-notebook\office\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hornir\Documents\GitHub\pc-notebook\office\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A99FBE18-E08F-4D37-83D9-A9053EBCD70A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="39210" yWindow="8235" windowWidth="28110" windowHeight="16440" xr2:uid="{1C2D599A-335A-4771-9286-92EAA936680C}"/>
+    <workbookView xWindow="40152" yWindow="8232" windowWidth="28116" windowHeight="16440"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -19,7 +18,7 @@
     <definedName name="X">Лист1!$A$4</definedName>
     <definedName name="Y">Лист1!$B$4</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -29,7 +28,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -375,90 +374,91 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09B8C630-FF39-4BD7-B48C-A320A48A720B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Лист1"/>
   <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="25.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="25.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="F1">
         <f ca="1">RANDBETWEEN(1, 1000)</f>
-        <v>746</v>
+        <v>466</v>
       </c>
       <c r="G1">
         <f t="shared" ref="G1:J5" ca="1" si="0">RANDBETWEEN(1, 1000)</f>
-        <v>104</v>
+        <v>44</v>
       </c>
       <c r="H1">
         <f t="shared" ca="1" si="0"/>
-        <v>946</v>
+        <v>124</v>
       </c>
       <c r="I1">
         <f t="shared" ca="1" si="0"/>
-        <v>271</v>
+        <v>411</v>
       </c>
       <c r="J1">
         <f t="shared" ca="1" si="0"/>
-        <v>912</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="F2">
         <f ca="1">RANDBETWEEN(1, 1000)</f>
-        <v>621</v>
+        <v>589</v>
       </c>
       <c r="G2">
         <f t="shared" ca="1" si="0"/>
-        <v>260</v>
+        <v>137</v>
       </c>
       <c r="H2">
         <f t="shared" ca="1" si="0"/>
-        <v>217</v>
+        <v>804</v>
       </c>
       <c r="I2">
         <f t="shared" ca="1" si="0"/>
-        <v>203</v>
+        <v>957</v>
       </c>
       <c r="J2">
         <f t="shared" ca="1" si="0"/>
-        <v>773</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="D3">
         <f>IF(OR(X+Y&gt;30, X-Y &lt; 15, Y-X &lt; 15), X*Y, X*X + Y*Y)</f>
         <v>144</v>
       </c>
       <c r="F3">
-        <f t="shared" ref="F2:F5" ca="1" si="1">RANDBETWEEN(1, 1000)</f>
-        <v>60</v>
+        <f t="shared" ref="F3:F5" ca="1" si="1">RANDBETWEEN(1, 1000)</f>
+        <v>728</v>
       </c>
       <c r="G3">
         <f t="shared" ca="1" si="0"/>
-        <v>556</v>
+        <v>676</v>
       </c>
       <c r="H3">
         <f t="shared" ca="1" si="0"/>
-        <v>625</v>
+        <v>749</v>
       </c>
       <c r="I3">
         <f t="shared" ca="1" si="0"/>
-        <v>360</v>
+        <v>875</v>
       </c>
       <c r="J3">
         <f t="shared" ca="1" si="0"/>
-        <v>843</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>8</v>
       </c>
@@ -467,26 +467,26 @@
       </c>
       <c r="F4">
         <f t="shared" ca="1" si="1"/>
-        <v>350</v>
+        <v>614</v>
       </c>
       <c r="G4">
         <f t="shared" ca="1" si="0"/>
-        <v>527</v>
+        <v>346</v>
       </c>
       <c r="H4">
         <f t="shared" ca="1" si="0"/>
-        <v>533</v>
+        <v>179</v>
       </c>
       <c r="I4">
         <f t="shared" ca="1" si="0"/>
-        <v>290</v>
+        <v>579</v>
       </c>
       <c r="J4">
         <f t="shared" ca="1" si="0"/>
-        <v>495</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" t="str">
         <f>IF(1 &lt;= X &lt;= 7, "Пренадлежит", "Не принадлежит")</f>
         <v>Не принадлежит</v>
@@ -497,26 +497,26 @@
       </c>
       <c r="F5">
         <f t="shared" ca="1" si="1"/>
-        <v>330</v>
+        <v>130</v>
       </c>
       <c r="G5">
         <f t="shared" ca="1" si="0"/>
-        <v>73</v>
+        <v>942</v>
       </c>
       <c r="H5">
         <f t="shared" ca="1" si="0"/>
-        <v>21</v>
+        <v>800</v>
       </c>
       <c r="I5">
         <f t="shared" ca="1" si="0"/>
-        <v>204</v>
+        <v>611</v>
       </c>
       <c r="J5">
         <f t="shared" ca="1" si="0"/>
-        <v>181</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7">
         <f>Y-X</f>
         <v>10</v>
@@ -527,23 +527,23 @@
       </c>
       <c r="F7">
         <f ca="1">AVERAGE(F1:J5)</f>
-        <v>420.04</v>
+        <v>557.20000000000005</v>
       </c>
       <c r="G7" t="str">
         <f ca="1">"Наибольшее
 значение: "&amp;LARGE(F1:J5,1)</f>
         <v>Наибольшее
-значение: 946</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+значение: 957</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="F8">
         <f ca="1">COUNTIF(F1:J5,"&lt;=20")</f>
         <v>0</v>
       </c>
       <c r="G8" t="str">
         <f ca="1">"Наименьшее значение: "&amp;SMALL(F1:J5,1)</f>
-        <v>Наименьшее значение: 21</v>
+        <v>Наименьшее значение: 44</v>
       </c>
     </row>
   </sheetData>
